--- a/outputs-HGR-r202/test-f__Anaerotignaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Anaerotignaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>Row</t>
   </si>
@@ -127,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -137,14 +137,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -164,21 +168,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -192,7 +196,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -206,126 +210,126 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.99986014596133033</v>
+        <v>0.99999500272702302</v>
       </c>
       <c r="C4">
-        <v>0.00013985403866967938</v>
+        <v>4.9972729769296227e-06</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0.99919002524737288</v>
+        <v>0.99999989808585676</v>
       </c>
       <c r="C5">
-        <v>0.00080997475262713269</v>
+        <v>1.0191414318487729e-07</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.99941612443183869</v>
+        <v>0.99917843904461567</v>
       </c>
       <c r="C6">
-        <v>0.00058387556816126226</v>
+        <v>0.00082156095538428095</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.99999500272702302</v>
+        <v>0.99989453402857487</v>
       </c>
       <c r="C7">
-        <v>4.9972729769296227e-06</v>
+        <v>0.00010546597142514217</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.999910614932084</v>
+        <v>0.99999993829649914</v>
       </c>
       <c r="C8">
-        <v>8.938506791596468e-05</v>
+        <v>6.1703500821135107e-08</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.99997287973627991</v>
+        <v>0.99999998651363542</v>
       </c>
       <c r="C9">
-        <v>2.7120263720122716e-05</v>
+        <v>1.348636456551969e-08</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.99999989808585676</v>
+        <v>0.99949383743864018</v>
       </c>
       <c r="C10">
-        <v>1.0191414318487729e-07</v>
+        <v>0.00050616256135983893</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B11">
-        <v>0.99917843904461567</v>
+        <v>0.99999998290106595</v>
       </c>
       <c r="C11">
-        <v>0.00082156095538428095</v>
+        <v>1.7098934057859476e-08</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>0.99977152770357758</v>
+        <v>0.99999915430074215</v>
       </c>
       <c r="C12">
-        <v>0.00022847229642244208</v>
+        <v>8.4569925785602903e-07</v>
       </c>
       <c r="D12">
         <v>1</v>
